--- a/spreadsheet/macrofree/redis_resiliency_checklist.zh-Hant.xlsx
+++ b/spreadsheet/macrofree/redis_resiliency_checklist.zh-Hant.xlsx
@@ -1059,17 +1059,17 @@
     <row r="8" ht="16.5" customHeight="1">
       <c r="A8" s="21" t="inlineStr">
         <is>
-          <t>區域冗餘</t>
+          <t>運營管理</t>
         </is>
       </c>
       <c r="B8" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>可用區</t>
         </is>
       </c>
       <c r="C8" s="21" t="inlineStr">
         <is>
-          <t>Azure Cache for Redis 支持高級層和企業層中的區域冗餘配置。區域冗餘緩存可以將其節點放置在同一區域中的不同 Azure 可用性區域中。它消除了作為單點故障的數據中心或可用區中斷，並提高了緩存的整體可用性。</t>
+          <t>Azure Cache for Redis 支持高級層和企業層中的區域冗餘配置。區域冗餘緩存可以將其節點放置在同一區域中的不同 Azure 可用性區域中。它消除了數據中心或可用區中斷作為單點故障，並提高了緩存的整體可用性。</t>
         </is>
       </c>
       <c r="D8" s="21" t="n"/>
@@ -1101,17 +1101,17 @@
     <row r="9" ht="16.5" customHeight="1">
       <c r="A9" s="21" t="inlineStr">
         <is>
-          <t>堅持</t>
+          <t>運營管理</t>
         </is>
       </c>
       <c r="B9" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>數據持久性</t>
         </is>
       </c>
       <c r="C9" s="21" t="inlineStr">
         <is>
-          <t>由於緩存數據存儲在記憶體中，因此多個節點的罕見意外故障可能會導致所有數據被丟棄。為了避免完全丟失數據，Redis 持久性允許定期拍攝記憶體中數據的快照，並將其存儲到存儲帳戶。</t>
+          <t>由於緩存數據存儲在記憶體中，因此多個節點的罕見和計劃外故障可能會導致所有數據被丟棄。為了避免完全丟失數據，Redis 持久性允許你定期拍攝記憶體中數據的快照，並將其存儲到存儲帳戶中。</t>
         </is>
       </c>
       <c r="D9" s="21" t="n"/>
@@ -1124,7 +1124,7 @@
       <c r="G9" s="21" t="n"/>
       <c r="H9" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-cache-for-redis/cache-how-to-premium-persistence?tabs=premium</t>
+          <t>https://learn.microsoft.com/en-us/azure/azure-cache-for-redis/cache-high-availability#persistence</t>
         </is>
       </c>
       <c r="I9" s="15" t="n"/>
@@ -1143,17 +1143,17 @@
     <row r="10" ht="16.5" customHeight="1">
       <c r="A10" s="21" t="inlineStr">
         <is>
-          <t>堅持</t>
+          <t>運營管理</t>
         </is>
       </c>
       <c r="B10" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>異地冗餘存儲</t>
         </is>
       </c>
       <c r="C10" s="21" t="inlineStr">
         <is>
-          <t>使用異地冗餘存儲帳戶來保存 Azure Cache for Redis 數據，或者在異地冗餘不可用時使用區域冗餘</t>
+          <t>使用異地冗餘存儲帳戶保存 Azure Cache for Redis 數據，或在異地冗餘不可用的情況下進行區域冗餘</t>
         </is>
       </c>
       <c r="D10" s="21" t="n"/>
@@ -1166,7 +1166,7 @@
       <c r="G10" s="21" t="n"/>
       <c r="H10" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-cache-for-redis/cache-how-to-premium-persistence?tabs=premium</t>
+          <t>https://learn.microsoft.com/en-us/azure/azure-cache-for-redis/cache-high-availability#storage-account-for-persistence</t>
         </is>
       </c>
       <c r="I10" s="15" t="n"/>
@@ -1185,17 +1185,17 @@
     <row r="11" ht="16.5" customHeight="1">
       <c r="A11" s="21" t="inlineStr">
         <is>
+          <t>運營管理</t>
+        </is>
+      </c>
+      <c r="B11" s="21" t="inlineStr">
+        <is>
           <t>異地複製</t>
         </is>
       </c>
-      <c r="B11" s="21" t="inlineStr">
-        <is>
-          <t>&amp;nbsp</t>
-        </is>
-      </c>
       <c r="C11" s="21" t="inlineStr">
         <is>
-          <t>異地複製是一種連結兩個或多個 Azure Redis 緩存實例的機制，通常跨越兩個 Azure 區域。異地複製主要用於跨區域災難恢復。兩個高級層緩存實例通過異地複製進行連接，提供對主緩存的讀取和寫入，並將數據複製到輔助緩存。</t>
+          <t>異地複製是一種用於連結兩個或多個 Azure Cache for Redis 實例的機制，通常跨越兩個 Azure 區域。異地複製主要用於跨區域災難恢復。兩個高級層緩存實例通過異地複製進行連接，以提供對主緩存的讀取和寫入，並將該數據複製到輔助緩存。</t>
         </is>
       </c>
       <c r="D11" s="21" t="n"/>
@@ -5998,7 +5998,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>區域冗餘</t>
+          <t>身份和訪問管理</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -6035,12 +6035,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>堅持</t>
+          <t>網路拓撲和連接</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>有一個與此檢查關聯的操作項</t>
+          <t>有一個與此檢查關聯的措施項</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -6062,12 +6062,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>異地複製</t>
+          <t>運營管理</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>此檢查已經過驗證，沒有與之關聯的其他操作項</t>
+          <t>此檢查已通過驗證，並且沒有與之關聯的進一步操作項</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -6082,6 +6082,11 @@
           <t>不需要</t>
         </is>
       </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>平臺自動化</t>
+        </is>
+      </c>
       <c r="H5" t="inlineStr">
         <is>
           <t>建議已理解，但當前要求不需要</t>
@@ -6097,6 +6102,11 @@
       <c r="B6" s="10" t="inlineStr">
         <is>
           <t>不適用</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>安全</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">

--- a/spreadsheet/macrofree/redis_resiliency_checklist.zh-Hant.xlsx
+++ b/spreadsheet/macrofree/redis_resiliency_checklist.zh-Hant.xlsx
@@ -1059,21 +1059,25 @@
     <row r="8" ht="16.5" customHeight="1">
       <c r="A8" s="21" t="inlineStr">
         <is>
-          <t>運營管理</t>
+          <t>BC 和DR</t>
         </is>
       </c>
       <c r="B8" s="21" t="inlineStr">
         <is>
-          <t>可用區</t>
+          <t>高可用性</t>
         </is>
       </c>
       <c r="C8" s="21" t="inlineStr">
         <is>
-          <t>Azure Cache for Redis 支持高級層和企業層中的區域冗餘配置。區域冗餘緩存可以將其節點放置在同一區域中的不同 Azure 可用性區域中。它消除了數據中心或可用區中斷作為單點故障，並提高了緩存的整體可用性。</t>
+          <t>為 Azure Cache for Redis 啟用區域冗餘。Azure Cache for Redis 支持高級層和企業層中的區域冗餘配置。區域冗餘緩存可以將其節點放置在同一區域的不同 Azure 可用性區域中。它消除了作為單點故障的數據中心或可用區中斷，並提高了緩存的整體可用性。</t>
         </is>
       </c>
       <c r="D8" s="21" t="n"/>
-      <c r="E8" s="21" t="n"/>
+      <c r="E8" s="21" t="inlineStr">
+        <is>
+          <t>高</t>
+        </is>
+      </c>
       <c r="F8" t="inlineStr">
         <is>
           <t>未驗證</t>
@@ -1101,21 +1105,25 @@
     <row r="9" ht="16.5" customHeight="1">
       <c r="A9" s="21" t="inlineStr">
         <is>
-          <t>運營管理</t>
+          <t>BC 和DR</t>
         </is>
       </c>
       <c r="B9" s="21" t="inlineStr">
         <is>
-          <t>數據持久性</t>
+          <t>高可用性</t>
         </is>
       </c>
       <c r="C9" s="21" t="inlineStr">
         <is>
-          <t>由於緩存數據存儲在記憶體中，因此多個節點的罕見和計劃外故障可能會導致所有數據被丟棄。為了避免完全丟失數據，Redis 持久性允許你定期拍攝記憶體中數據的快照，並將其存儲到存儲帳戶中。</t>
+          <t>為 Azure Cache for Redis 實例配置數據持久性。由於緩存數據存儲在記憶體中，因此多個節點的罕見和計劃外故障可能會導致所有數據被丟棄。為了避免完全丟失數據，Redis 持久性允許您定期拍攝記憶體中數據的快照，並將其存儲到存儲帳戶中。</t>
         </is>
       </c>
       <c r="D9" s="21" t="n"/>
-      <c r="E9" s="21" t="n"/>
+      <c r="E9" s="21" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
       <c r="F9" t="inlineStr">
         <is>
           <t>未驗證</t>
@@ -1143,21 +1151,25 @@
     <row r="10" ht="16.5" customHeight="1">
       <c r="A10" s="21" t="inlineStr">
         <is>
-          <t>運營管理</t>
+          <t>BC 和DR</t>
         </is>
       </c>
       <c r="B10" s="21" t="inlineStr">
         <is>
-          <t>異地冗餘存儲</t>
+          <t>高可用性</t>
         </is>
       </c>
       <c r="C10" s="21" t="inlineStr">
         <is>
-          <t>使用異地冗餘存儲帳戶保存 Azure Cache for Redis 數據，或在異地冗餘不可用的情況下進行區域冗餘</t>
+          <t>使用異地冗餘存儲帳戶保留 Azure Cache for Redis 數據，或在異地冗餘不可用的情況下使用區域冗餘</t>
         </is>
       </c>
       <c r="D10" s="21" t="n"/>
-      <c r="E10" s="21" t="n"/>
+      <c r="E10" s="21" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
       <c r="F10" t="inlineStr">
         <is>
           <t>未驗證</t>
@@ -1185,21 +1197,25 @@
     <row r="11" ht="16.5" customHeight="1">
       <c r="A11" s="21" t="inlineStr">
         <is>
-          <t>運營管理</t>
+          <t>BC 和DR</t>
         </is>
       </c>
       <c r="B11" s="21" t="inlineStr">
         <is>
-          <t>異地複製</t>
+          <t>高可用性</t>
         </is>
       </c>
       <c r="C11" s="21" t="inlineStr">
         <is>
-          <t>異地複製是一種用於連結兩個或多個 Azure Cache for Redis 實例的機制，通常跨越兩個 Azure 區域。異地複製主要用於跨區域災難恢復。兩個高級層緩存實例通過異地複製進行連接，以提供對主緩存的讀取和寫入，並將該數據複製到輔助緩存。</t>
+          <t>為高級 Azure Cache for Redis 實例配置被動異地複製。異地複製是一種用於連結兩個或多個 Azure Cache for Redis 實例的機制，通常跨越兩個 Azure 區域。異地複製主要用於跨區域災難恢復。兩個高級層緩存實例通過異地複製進行連接，從而提供對主緩存的讀取和寫入，並將數據複製到輔助緩存。</t>
         </is>
       </c>
       <c r="D11" s="21" t="n"/>
-      <c r="E11" s="21" t="n"/>
+      <c r="E11" s="21" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
       <c r="F11" t="inlineStr">
         <is>
           <t>未驗證</t>
@@ -5922,7 +5938,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -6040,7 +6056,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>有一個與此檢查關聯的措施項</t>
+          <t>有一個與此檢查關聯的操作項</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -6062,7 +6078,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>運營管理</t>
+          <t>BC 和DR</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -6084,12 +6100,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>平臺自動化</t>
+          <t>治理與安全</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>建議已理解，但當前要求不需要</t>
+          <t>建議已理解，但當前需求不需要</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -6106,7 +6122,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>成本治理</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -6117,6 +6133,20 @@
       <c r="K6" t="inlineStr">
         <is>
           <t>es</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>應用程式部署</t>
         </is>
       </c>
     </row>
